--- a/DaySale_2025-05-21_10-33.xlsx
+++ b/DaySale_2025-05-21_10-33.xlsx
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>25.00</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
   <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
@@ -712,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45798.440017682202</v>
+        <v>45798.440089184871</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -721,7 +727,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45798.440017682202</v>
+        <v>45798.440089184871</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -820,7 +826,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -828,7 +834,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="M9" s="11">
         <v>11</v>
@@ -839,7 +845,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B10" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -847,7 +853,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -855,10 +861,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L10" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c t="s" r="M10" s="11">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -866,7 +872,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B11" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -874,7 +880,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -882,10 +888,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L11" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="M11" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -893,7 +899,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B12" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -901,7 +907,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -909,10 +915,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L12" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="M12" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -920,7 +926,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B13" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -928,7 +934,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -936,10 +942,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L13" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="M13" s="11">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -947,7 +953,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B14" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -955,7 +961,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -966,7 +972,7 @@
         <v>33</v>
       </c>
       <c t="s" r="M14" s="11">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -982,7 +988,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -990,10 +996,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L15" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="M15" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1001,7 +1007,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B16" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1009,7 +1015,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1020,7 +1026,7 @@
         <v>38</v>
       </c>
       <c t="s" r="M16" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1041,13 +1047,13 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c t="s" r="K17" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L17" s="8">
         <v>40</v>
       </c>
-      <c t="s" r="L17" s="8">
-        <v>36</v>
-      </c>
       <c t="s" r="M17" s="11">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1063,15 +1069,15 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c t="s" r="K18" s="10">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c t="s" r="L18" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c t="s" r="M18" s="11">
         <v>11</v>
@@ -1090,7 +1096,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1101,7 +1107,7 @@
         <v>44</v>
       </c>
       <c t="s" r="M19" s="11">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1109,7 +1115,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B20" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1117,43 +1123,70 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c t="s" r="K20" s="10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c t="s" r="L20" s="8">
+        <v>46</v>
+      </c>
+      <c t="s" r="M20" s="11">
         <v>47</v>
       </c>
-      <c t="s" r="M20" s="11">
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c t="s" r="B21" s="8">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c t="s" r="K21" s="10">
+        <v>42</v>
+      </c>
+      <c t="s" r="L21" s="8">
+        <v>49</v>
+      </c>
+      <c t="s" r="M21" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="12">
-        <v>48</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c t="s" r="F21" s="13">
-        <v>49</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c t="s" r="I21" s="15">
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="12">
         <v>50</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c t="s" r="F22" s="13">
+        <v>51</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c t="s" r="I22" s="15">
+        <v>52</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -1189,9 +1222,11 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
